--- a/2k16/Data_ChampionshipScores.xlsx
+++ b/2k16/Data_ChampionshipScores.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/MarchMadness/2k16/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -474,12 +484,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -509,12 +519,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -721,18 +731,18 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -789,7 +799,7 @@
         <v>63.131578947368418</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -820,7 +830,7 @@
         <v>13.187256712909944</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -851,7 +861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -882,7 +892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -902,7 +912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -922,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -942,7 +952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -962,7 +972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -982,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2001</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1999</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1995</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1994</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -1262,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1992</v>
       </c>
@@ -1282,7 +1292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1990</v>
       </c>
@@ -1322,7 +1332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1989</v>
       </c>
@@ -1342,7 +1352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1988</v>
       </c>
@@ -1362,7 +1372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1987</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1986</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1985</v>
       </c>
@@ -1422,7 +1432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1984</v>
       </c>
@@ -1442,7 +1452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1983</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1982</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1981</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1980</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1979</v>
       </c>
@@ -1542,7 +1552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1978</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1977</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1976</v>
       </c>
@@ -1602,7 +1612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1975</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1974</v>
       </c>
@@ -1642,7 +1652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1973</v>
       </c>
@@ -1662,7 +1672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1972</v>
       </c>
@@ -1682,7 +1692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1971</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1970</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1969</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1968</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1967</v>
       </c>
@@ -1782,7 +1792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1966</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1965</v>
       </c>
@@ -1822,7 +1832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1964</v>
       </c>
@@ -1842,7 +1852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1963</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1962</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1961</v>
       </c>
@@ -1902,7 +1912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1960</v>
       </c>
@@ -1922,7 +1932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1959</v>
       </c>
@@ -1942,7 +1952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1958</v>
       </c>
@@ -1962,7 +1972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1957</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1956</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1955</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1954</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1953</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1952</v>
       </c>
@@ -2082,7 +2092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1951</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1950</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1949</v>
       </c>
@@ -2142,7 +2152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1948</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1947</v>
       </c>
@@ -2182,7 +2192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1946</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1945</v>
       </c>
@@ -2222,7 +2232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1944</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1943</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1942</v>
       </c>
@@ -2282,7 +2292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1941</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1940</v>
       </c>
@@ -2322,7 +2332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1939</v>
       </c>
